--- a/habq_parameters_2factor.xlsx
+++ b/habq_parameters_2factor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="14355" windowHeight="11820"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="14355" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="win_model" sheetId="2" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -1213,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>49</v>
@@ -1319,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>51</v>
